--- a/resources/experiment 2/metrics/MAPE/upto time/Amputación extremidades inferiores (UPTO).xlsx
+++ b/resources/experiment 2/metrics/MAPE/upto time/Amputación extremidades inferiores (UPTO).xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3973184152826393</v>
+        <v>3973184152826392</v>
       </c>
       <c r="C2" t="n">
-        <v>3973184152826393</v>
+        <v>3973184152826392</v>
       </c>
       <c r="D2" t="n">
-        <v>3973184152826393</v>
+        <v>3973184152826392</v>
       </c>
     </row>
     <row r="3">
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5197155928555.055</v>
+        <v>2718773608407.162</v>
       </c>
       <c r="C3" t="n">
-        <v>5197155928555.055</v>
+        <v>2841518016381.994</v>
       </c>
       <c r="D3" t="n">
-        <v>5197155928555.055</v>
+        <v>119384728651386.7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7460858911742.733</v>
+        <v>2716240479202.796</v>
       </c>
       <c r="C4" t="n">
-        <v>7462607500679.817</v>
+        <v>2569039485745.833</v>
       </c>
       <c r="D4" t="n">
-        <v>7462607500679.817</v>
+        <v>37125781725473.19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>245607412230435.6</v>
+        <v>150891519516656.6</v>
       </c>
       <c r="C5" t="n">
-        <v>245607412230435.6</v>
+        <v>211589390198999.9</v>
       </c>
       <c r="D5" t="n">
-        <v>245607412230435.6</v>
+        <v>2111364979239140</v>
       </c>
     </row>
   </sheetData>
